--- a/assets/disciplinas/LOM3267.xlsx
+++ b/assets/disciplinas/LOM3267.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,46 +70,49 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The Graduation Work (TG) aims to integrate, deepen and apply the knowledge acquired throughout the course, preparing and developing the student's ability to perform tasks that are part of the professional performance profile of the physical engineer.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Preparation, with the guidance of a supervising professor, of a project proposal on a topic related to the area of science and technology.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>The student should look for a professor or professional with training in the area of engineering or related areas, for the elaboration of a project proposal containing motivation and objectives, theoretical foundation and execution schedule. The project itself will be developed and defended in the course Undergraduate Work II.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+  </si>
+  <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O aluno deve apresentar a proposta de trabalho à uma banca formada pelo responsável pela disciplina e professores ou profissionais da área.</t>
-  </si>
-  <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The Graduation Work (TG) aims to integrate, deepen and apply the knowledge acquired throughout the course, preparing and developing the student's ability to perform tasks that are part of the professional performance profile of the physical engineer.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Preparation, with the guidance of a supervising professor, of a project proposal on a topic related to the area of science and technology.</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>The student should look for a professor or professional with training in the area of engineering or related areas, for the elaboration of a project proposal containing motivation and objectives, theoretical foundation and execution schedule. The project itself will be developed and defended in the course Undergraduate Work II.</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
@@ -620,10 +623,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
@@ -642,37 +645,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -680,45 +683,45 @@
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3267.xlsx
+++ b/assets/disciplinas/LOM3267.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>O Trabalho de Graduação (TG) tem por objetivo a integração, o aprofundamento e aplicação dos conhecimentos adquiridos ao longo do curso, preparando e desenvolvendo a capacidade do aluno para a realização de tarefas que fazem parte do perfil de atuação profissional do engenheiro físico.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The Graduation Work (TG) aims to integrate, deepen and apply the knowledge acquired throughout the course, preparing and developing the student's ability to perform tasks that are part of the professional performance profile of the physical engineer.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The Graduation Work (TG) aims to integrate, deepen and apply the knowledge acquired throughout the course, preparing and developing the student's ability to perform tasks that are part of the professional performance profile of the physical engineer.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Elaboração, com a orientação de um professor supervisor, de uma proposta de projeto em tema ligado à área de ciência e tecnologia.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>O aluno deve procurar um professor ou profissional com formação na área de engenharia ou áreas correlatas, para a elaboração de uma proposta de projeto contendo motivação e objetivos, fundamentação teórica e cronograma de execução. O projeto propriamente dito será desenvolvido e defendido na disciplina Trabalho de Graduação II.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>O aluno deve apresentar a proposta de trabalho à uma banca formada pelo responsável pela disciplina e professores ou profissionais da área.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O aluno deve apresentar a proposta de trabalho à uma banca formada pelo responsável pela disciplina e professores ou profissionais da área.</t>
+    <t>Avaliação e atribuição de nota do Trabalho de Graduação por uma comissão de professores.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Avaliação e atribuição de nota do Trabalho de Graduação por uma comissão de professores.</t>
+    <t>A critério da banca de avaliação poderá ser estabelecido um prazo para readequação e reapresentação do plano de trabalho.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A critério da banca de avaliação poderá ser estabelecido um prazo para readequação e reapresentação do plano de trabalho.</t>
+    <t>A ser definida no plano de trabalho.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,40 +630,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -662,30 +668,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -700,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -711,17 +717,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
